--- a/Sprint2Vec_Config.xlsx
+++ b/Sprint2Vec_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerachaibanyongrakkul/Documents/Study Materials/TSE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerachaibanyongrakkul/Documents/GitHub/sprint2vec_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238BF15C-39CE-AF46-A551-0B39B17BB29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797FACB0-0379-ED4C-A147-EF3BC9C837D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15920" firstSheet="3" activeTab="5" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15900" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
   </bookViews>
   <sheets>
     <sheet name="Apache_Productivity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Talendforge_Quality" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="52">
   <si>
     <t>Configurable Components</t>
   </si>
@@ -74,15 +73,9 @@
     <t>Layer</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Dropout rate</t>
   </si>
   <si>
-    <t>input dim (vocab size)</t>
-  </si>
-  <si>
     <t>Activation</t>
   </si>
   <si>
@@ -192,13 +185,32 @@
   </si>
   <si>
     <t>BoW (min_df = 234 ==&gt; max_vocab = 208)</t>
+  </si>
+  <si>
+    <t>Input dim (vocab size)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t># of Params</t>
+  </si>
+  <si>
+    <t># of Units</t>
+  </si>
+  <si>
+    <t>sow2v (dim=200)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +222,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,19 +258,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,13 +280,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -279,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,65 +609,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF9BC59-29F9-2C45-AF69-9EA446588202}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -642,16 +684,19 @@
       <c r="D3">
         <v>148</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -661,12 +706,13 @@
       <c r="E4">
         <v>475</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -674,146 +720,160 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>148</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>273</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="9">
+        <v>26532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0.25</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="K15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="I3:I8"/>
@@ -828,10 +888,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5506-7FAC-BC44-ABD8-E9037E70008E}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,50 +903,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -895,18 +962,21 @@
       <c r="D3">
         <v>105</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>34190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -914,12 +984,13 @@
       <c r="E4">
         <v>270</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -927,166 +998,180 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="I10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="10">
+        <v>102392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1024</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1094,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D1E0B7-A670-444C-99A8-5800E1FD00B0}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,51 +1193,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1161,16 +1252,19 @@
       <c r="D3">
         <v>148</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1180,12 +1274,13 @@
       <c r="E4">
         <v>475</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1193,159 +1288,173 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>148</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>273</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="9">
+        <v>315956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="B3:B8"/>
@@ -1360,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEC0409-29D9-A14C-B1C9-00E81206CC00}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,50 +1483,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1426,16 +1542,19 @@
       <c r="D3">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1445,12 +1564,13 @@
       <c r="E4">
         <v>124</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1458,159 +1578,173 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>35</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1083</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="10">
+        <v>363704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0.25</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0.25</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B3:B8"/>
@@ -1625,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB5F7C-46F4-E440-A522-90957F2E9F91}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,50 +1774,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1692,16 +1833,19 @@
       <c r="D3">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1711,12 +1855,13 @@
       <c r="E4">
         <v>124</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1724,150 +1869,164 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>35</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="10">
+        <v>257272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B3:B8"/>
@@ -1882,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435C9D0F-43D0-6745-A694-B3B1F4375FFD}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,50 +2055,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1948,16 +2114,19 @@
       <c r="D3">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1967,12 +2136,13 @@
       <c r="E4">
         <v>158</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1980,163 +2150,177 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>87</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>249</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10">
+        <v>291332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A11A8BE-7514-D54E-95AE-F8585A3F454D}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,50 +2342,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -2210,16 +2401,19 @@
       <c r="D3">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -2229,12 +2423,13 @@
       <c r="E4">
         <v>158</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -2242,163 +2437,177 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>87</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>249</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10">
+        <v>291332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2406,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8593FF9A-CB82-8842-BA08-37130CE9B0DE}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K11" sqref="K11:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,50 +2630,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -2473,18 +2689,21 @@
       <c r="D3">
         <v>197</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>46516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -2492,12 +2711,13 @@
       <c r="E4">
         <v>308</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -2505,28 +2725,30 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>197</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -2534,140 +2756,153 @@
       <c r="E7">
         <v>308</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0.2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>831</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="10">
+        <v>257792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1024</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="K3:K9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="I3:I9"/>
     <mergeCell ref="J3:J9"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="I11:I16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2675,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366BD8B5-C0A6-7F44-BC7F-32C4B05CBC3A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K11" sqref="K11:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2690,50 +2925,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -2742,18 +2984,21 @@
       <c r="D3">
         <v>197</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>46516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -2761,12 +3006,13 @@
       <c r="E4">
         <v>308</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -2774,28 +3020,30 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>197</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -2803,149 +3051,162 @@
       <c r="E7">
         <v>308</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0.2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1283</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="10">
+        <v>242760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0.25</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>0.25</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1024</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="K11:K16"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="I3:I9"/>
     <mergeCell ref="J3:J9"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="I11:I16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2953,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183FDACA-B963-0344-AE10-8936DB916D66}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2968,50 +3229,57 @@
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -3020,18 +3288,21 @@
       <c r="D3">
         <v>105</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>34190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -3039,12 +3310,13 @@
       <c r="E4">
         <v>270</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -3052,157 +3324,171 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="10">
+        <v>257272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint2Vec_Config.xlsx
+++ b/Sprint2Vec_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerachaibanyongrakkul/Documents/GitHub/sprint2vec_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797FACB0-0379-ED4C-A147-EF3BC9C837D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114090A8-8ABD-EF49-A939-3DB06B7D06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15900" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="27040" windowHeight="15900" firstSheet="2" activeTab="9" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
   </bookViews>
   <sheets>
     <sheet name="Apache_Productivity" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="51">
   <si>
     <t>Configurable Components</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Text Embedding</t>
   </si>
   <si>
-    <t>sow2v</t>
-  </si>
-  <si>
     <t>Act Embedding</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>AdamWeightDecay (0.001)</t>
   </si>
   <si>
-    <t>seBERT</t>
-  </si>
-  <si>
     <t>RMSprop (0.001)</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>AdamWeightDecay (0.00001)</t>
   </si>
   <si>
-    <t>BERTuncased</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Full</t>
   </si>
   <si>
-    <t>BERTOverflow</t>
-  </si>
-  <si>
     <t>encoder_embedding</t>
   </si>
   <si>
@@ -200,6 +188,15 @@
   </si>
   <si>
     <t>sow2v (dim=200)</t>
+  </si>
+  <si>
+    <t>seBERT (dim=1024)</t>
+  </si>
+  <si>
+    <t>BERTuncased (dim=768)</t>
+  </si>
+  <si>
+    <t>BERTOverflow (dim=768)</t>
   </si>
 </sst>
 </file>
@@ -611,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF9BC59-29F9-2C45-AF69-9EA446588202}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,34 +630,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -668,27 +665,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="9">
         <v>47515</v>
@@ -698,7 +695,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -714,13 +711,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -733,7 +730,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>148</v>
@@ -746,13 +743,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -765,13 +762,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -779,27 +776,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>273</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="9">
         <v>26532</v>
@@ -809,7 +806,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="9"/>
@@ -818,13 +815,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.25</v>
@@ -836,16 +833,16 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="9"/>
@@ -854,13 +851,13 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="9"/>
@@ -890,14 +887,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5506-7FAC-BC44-ABD8-E9037E70008E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -911,34 +908,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -946,27 +943,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>34190</v>
@@ -976,7 +973,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -992,13 +989,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1011,7 +1008,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -1024,13 +1021,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -1043,13 +1040,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1057,27 +1054,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K10" s="10">
         <v>102392</v>
@@ -1087,7 +1084,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -1096,16 +1093,16 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="10"/>
@@ -1114,16 +1111,16 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1024</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="10"/>
@@ -1132,16 +1129,16 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -1150,13 +1147,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -1182,12 +1179,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -1201,62 +1199,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="9">
         <v>47515</v>
@@ -1266,7 +1264,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1282,13 +1280,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1301,7 +1299,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>148</v>
@@ -1314,13 +1312,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -1333,13 +1331,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1347,27 +1345,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>273</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="9">
         <v>315956</v>
@@ -1377,7 +1375,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="9"/>
@@ -1386,13 +1384,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.5</v>
@@ -1404,13 +1402,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -1422,16 +1420,16 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="9"/>
@@ -1440,13 +1438,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="9"/>
@@ -1472,12 +1470,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -1491,34 +1490,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1526,27 +1525,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="9">
         <v>24700</v>
@@ -1556,7 +1555,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1572,13 +1571,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1591,7 +1590,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -1604,13 +1603,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -1623,13 +1622,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1637,27 +1636,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>1083</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="10">
         <v>363704</v>
@@ -1667,7 +1666,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -1676,13 +1675,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.25</v>
@@ -1694,13 +1693,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0.25</v>
@@ -1712,16 +1711,16 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -1730,13 +1729,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -1762,13 +1761,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -1782,34 +1781,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1817,27 +1816,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="9">
         <v>24700</v>
@@ -1847,7 +1846,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1863,13 +1862,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1882,7 +1881,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -1895,13 +1894,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -1914,13 +1913,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1928,27 +1927,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10">
         <v>257272</v>
@@ -1958,7 +1957,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -1967,13 +1966,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="10"/>
@@ -1982,13 +1981,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="10"/>
@@ -1997,13 +1996,13 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -2012,13 +2011,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -2044,12 +2043,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -2063,62 +2063,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>87</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="9">
         <v>9438</v>
@@ -2128,7 +2128,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -2144,13 +2144,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2160,7 +2160,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>87</v>
@@ -2173,13 +2173,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -2192,13 +2192,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2206,27 +2206,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>249</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="10">
         <v>291332</v>
@@ -2236,7 +2236,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -2245,13 +2245,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.5</v>
@@ -2263,13 +2263,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -2281,16 +2281,16 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -2299,13 +2299,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -2331,12 +2331,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -2350,62 +2351,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>87</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>9438</v>
@@ -2415,7 +2416,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -2431,13 +2432,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2447,7 +2448,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>87</v>
@@ -2460,13 +2461,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -2479,13 +2480,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2493,27 +2494,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>249</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="10">
         <v>291332</v>
@@ -2523,7 +2524,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -2532,13 +2533,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1024</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.5</v>
@@ -2550,13 +2551,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0.5</v>
@@ -2568,16 +2569,16 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -2586,13 +2587,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -2618,13 +2619,13 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -2638,34 +2639,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2673,27 +2674,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>197</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>46516</v>
@@ -2703,7 +2704,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -2719,13 +2720,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -2735,7 +2736,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>197</v>
@@ -2748,7 +2749,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -2764,13 +2765,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -2783,13 +2784,13 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2797,27 +2798,27 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>831</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11" s="10">
         <v>257792</v>
@@ -2827,7 +2828,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="10"/>
@@ -2836,13 +2837,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="10"/>
@@ -2851,13 +2852,13 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -2866,13 +2867,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1024</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -2881,13 +2882,13 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7"/>
       <c r="K16" s="10"/>
@@ -2933,34 +2934,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2968,27 +2969,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>197</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>46516</v>
@@ -2998,7 +2999,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -3014,13 +3015,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3030,7 +3031,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>197</v>
@@ -3043,7 +3044,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -3059,13 +3060,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -3078,13 +3079,13 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3092,27 +3093,27 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>1283</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11" s="10">
         <v>242760</v>
@@ -3122,7 +3123,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="10"/>
@@ -3131,13 +3132,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>0.25</v>
@@ -3149,13 +3150,13 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0.25</v>
@@ -3167,16 +3168,16 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1024</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>
@@ -3185,13 +3186,13 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7"/>
       <c r="K16" s="10"/>
@@ -3217,13 +3218,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -3237,34 +3238,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3272,27 +3273,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>105</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9">
         <v>34190</v>
@@ -3302,7 +3303,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -3318,13 +3319,13 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -3337,7 +3338,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -3350,13 +3351,13 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -3369,13 +3370,13 @@
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3383,27 +3384,27 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>827</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10" s="10">
         <v>257272</v>
@@ -3413,7 +3414,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="10"/>
@@ -3422,13 +3423,13 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="10"/>
@@ -3437,13 +3438,13 @@
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="10"/>
@@ -3452,13 +3453,13 @@
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1024</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="10"/>
@@ -3467,13 +3468,13 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="K15" s="10"/>

--- a/Sprint2Vec_Config.xlsx
+++ b/Sprint2Vec_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerachaibanyongrakkul/Documents/GitHub/sprint2vec_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114090A8-8ABD-EF49-A939-3DB06B7D06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BB0FD-3D35-B244-A450-BBECEB11E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="27040" windowHeight="15900" firstSheet="2" activeTab="9" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="27040" windowHeight="15900" firstSheet="3" activeTab="10" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
   </bookViews>
   <sheets>
     <sheet name="Apache_Productivity" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Spring_Quality" sheetId="9" r:id="rId8"/>
     <sheet name="Talendforge_Productivity" sheetId="10" r:id="rId9"/>
     <sheet name="Talendforge_Quality" sheetId="11" r:id="rId10"/>
+    <sheet name="Time Complexity" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +38,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="69">
   <si>
     <t>Configurable Components</t>
   </si>
@@ -197,15 +199,70 @@
   </si>
   <si>
     <t>BERTOverflow (dim=768)</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Atlassian</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Talendforge</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Activity RNN Training &amp; Tuning</t>
+  </si>
+  <si>
+    <t>Feature Construction</t>
+  </si>
+  <si>
+    <t>AutoKeras Regressor Training &amp; Tuning</t>
+  </si>
+  <si>
+    <t>* Unit in Second</t>
+  </si>
+  <si>
+    <t>AutoKeras Regressor Inference</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>AutoKeras Regressor Inference: Average inference time of productivity task and quality task</t>
+  </si>
+  <si>
+    <t>Feature Construction: Feature Construction for all combinations of approach configurations</t>
+  </si>
+  <si>
+    <t>Data Prepation: Data Loading, Data Splitting, Data Preprocessing</t>
+  </si>
+  <si>
+    <t>AutoKeras Regressor Training &amp; Tuning: Average training and tuning time of productivity task and quality task</t>
+  </si>
+  <si>
+    <t>Activity RNN Training &amp; Tuning: Training and tuning time for activity RNN model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -259,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,6 +348,10 @@
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -887,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5506-7FAC-BC44-ABD8-E9037E70008E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1170,6 +1231,212 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="I10:I15"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFCEBED-0CEF-FC48-A0B3-6AC023E7484D}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12">
+        <f>1.90287280082702+5.26696062088012</f>
+        <v>7.16983342170714</v>
+      </c>
+      <c r="C2" s="12">
+        <v>14548.182986736199</v>
+      </c>
+      <c r="D2" s="12">
+        <v>194.45071220397901</v>
+      </c>
+      <c r="E2" s="12">
+        <v>12874.4389959573</v>
+      </c>
+      <c r="F2" s="12">
+        <f>(0.0492518510742885+0.0694238417364465)/2</f>
+        <v>5.9337846405367503E-2</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM(B2:F2)</f>
+        <v>27624.301866165588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="12">
+        <f>1.93603992462158+1.42025876045227</f>
+        <v>3.3562986850738499</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5390.3550209999003</v>
+      </c>
+      <c r="D3" s="12">
+        <v>261.33614730834898</v>
+      </c>
+      <c r="E3" s="12">
+        <v>25772.546979665702</v>
+      </c>
+      <c r="F3" s="12">
+        <f>(0.0558837963766595+0.0648584602185454)/2</f>
+        <v>6.0371128297602453E-2</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G6" si="0">SUM(B3:F3)</f>
+        <v>31427.654817787319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12">
+        <f>3.61102843284606+4.88808369636535</f>
+        <v>8.4991121292114098</v>
+      </c>
+      <c r="C4" s="12">
+        <v>24119.2870918802</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1286.2566804885801</v>
+      </c>
+      <c r="E4" s="12">
+        <v>11494.557356953601</v>
+      </c>
+      <c r="F4" s="12">
+        <f>(0.06578396210925+0.0784751268545021)/2</f>
+        <v>7.2129544481876057E-2</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>36908.672370996072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="12">
+        <f>2.31647539138793+7.68053865432739</f>
+        <v>9.9970140457153196</v>
+      </c>
+      <c r="C5" s="12">
+        <v>23340.2372409296</v>
+      </c>
+      <c r="D5" s="12">
+        <v>429.469917297363</v>
+      </c>
+      <c r="E5" s="12">
+        <v>12316.5500522932</v>
+      </c>
+      <c r="F5" s="12">
+        <f>(0.0505508941214415+0.038844702083911)/2</f>
+        <v>4.4697798102676253E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>36096.298922363982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="12">
+        <f>2.15141057968139+4.345960855484</f>
+        <v>6.4973714351653893</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15712.037625675201</v>
+      </c>
+      <c r="D6" s="12">
+        <v>269.76839447021399</v>
+      </c>
+      <c r="E6" s="12">
+        <v>14927.893893480301</v>
+      </c>
+      <c r="F6" s="12">
+        <f>(0.0452411405412508+0.0350504280713148)/2</f>
+        <v>4.0145784306282802E-2</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>30916.237430845187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Sprint2Vec_Config.xlsx
+++ b/Sprint2Vec_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerachaibanyongrakkul/Documents/GitHub/sprint2vec_revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BB0FD-3D35-B244-A450-BBECEB11E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEAE01-5020-4E4B-9A19-8115008A4EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="27040" windowHeight="15900" firstSheet="3" activeTab="10" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15860" xr2:uid="{FFD04613-4062-8743-BE5A-040E02029004}"/>
   </bookViews>
   <sheets>
     <sheet name="Apache_Productivity" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,13 +345,16 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF9BC59-29F9-2C45-AF69-9EA446588202}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,12 +929,12 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="K3:K8"/>
-    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K10:K14"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="I3:I8"/>
@@ -1137,7 +1140,7 @@
       <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>102392</v>
       </c>
     </row>
@@ -1148,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -1166,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1184,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -1202,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1217,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1239,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFCEBED-0CEF-FC48-A0B3-6AC023E7484D}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,24 +1283,24 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <f>1.90287280082702+5.26696062088012</f>
         <v>7.16983342170714</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>14548.182986736199</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>194.45071220397901</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>12874.4389959573</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <f>(0.0492518510742885+0.0694238417364465)/2</f>
         <v>5.9337846405367503E-2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <f>SUM(B2:F2)</f>
         <v>27624.301866165588</v>
       </c>
@@ -1306,24 +1309,24 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <f>1.93603992462158+1.42025876045227</f>
         <v>3.3562986850738499</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>5390.3550209999003</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>261.33614730834898</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>25772.546979665702</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <f>(0.0558837963766595+0.0648584602185454)/2</f>
         <v>6.0371128297602453E-2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G6" si="0">SUM(B3:F3)</f>
         <v>31427.654817787319</v>
       </c>
@@ -1332,24 +1335,24 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <f>3.61102843284606+4.88808369636535</f>
         <v>8.4991121292114098</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>24119.2870918802</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>1286.2566804885801</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>11494.557356953601</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <f>(0.06578396210925+0.0784751268545021)/2</f>
         <v>7.2129544481876057E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>36908.672370996072</v>
       </c>
@@ -1358,24 +1361,24 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <f>2.31647539138793+7.68053865432739</f>
         <v>9.9970140457153196</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>23340.2372409296</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>429.469917297363</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>12316.5500522932</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <f>(0.0505508941214415+0.038844702083911)/2</f>
         <v>4.4697798102676253E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>36096.298922363982</v>
       </c>
@@ -1384,24 +1387,24 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <f>2.15141057968139+4.345960855484</f>
         <v>6.4973714351653893</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>15712.037625675201</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>269.76839447021399</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>14927.893893480301</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <f>(0.0452411405412508+0.0350504280713148)/2</f>
         <v>4.0145784306282802E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>30916.237430845187</v>
       </c>
@@ -1417,7 +1420,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1427,7 +1430,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1446,7 +1449,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1925,7 +1928,7 @@
       <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>363704</v>
       </c>
     </row>
@@ -1936,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -1954,7 +1957,7 @@
         <v>0.25</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1972,7 +1975,7 @@
         <v>0.25</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -1990,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2005,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2216,7 +2219,7 @@
       <c r="I10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>257272</v>
       </c>
     </row>
@@ -2227,7 +2230,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2242,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2257,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2272,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2287,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2495,7 +2498,7 @@
       <c r="I10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>291332</v>
       </c>
     </row>
@@ -2506,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2524,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2542,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2560,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2575,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2783,7 +2786,7 @@
       <c r="I10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>291332</v>
       </c>
     </row>
@@ -2794,7 +2797,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2812,7 +2815,7 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2830,7 +2833,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2848,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2863,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3087,7 +3090,7 @@
       <c r="I11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
         <v>257792</v>
       </c>
     </row>
@@ -3098,7 +3101,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3113,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3128,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3143,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3158,7 +3161,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3382,7 +3385,7 @@
       <c r="I11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
         <v>242760</v>
       </c>
     </row>
@@ -3393,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3411,7 +3414,7 @@
         <v>0.25</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3429,7 +3432,7 @@
         <v>0.25</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3447,7 +3450,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3462,7 +3465,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3673,7 +3676,7 @@
       <c r="I10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>257272</v>
       </c>
     </row>
@@ -3684,7 +3687,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -3699,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -3714,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3729,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3744,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
